--- a/resultados_peticiones.xlsx
+++ b/resultados_peticiones.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>429</v>
@@ -468,12 +468,12 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" t="n">
         <v>429</v>
@@ -484,12 +484,12 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>429</v>
@@ -500,12 +500,12 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>429</v>
@@ -516,12 +516,12 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>429</v>
@@ -532,12 +532,12 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
         <v>429</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>429</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>429</v>
@@ -580,12 +580,12 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n">
         <v>429</v>
@@ -596,12 +596,12 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>429</v>
@@ -612,12 +612,12 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
         <v>429</v>
@@ -628,12 +628,12 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="n">
         <v>429</v>
@@ -644,12 +644,12 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
         <v>429</v>
@@ -660,12 +660,12 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B15" t="n">
         <v>429</v>
@@ -676,12 +676,12 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
         <v>429</v>
@@ -692,12 +692,12 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
         <v>429</v>
@@ -708,12 +708,12 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>429</v>
@@ -724,12 +724,12 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B19" t="n">
         <v>429</v>
@@ -740,12 +740,12 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B20" t="n">
         <v>429</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="21">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="22">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="23">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24">
@@ -820,12 +820,12 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
         <v>429</v>
@@ -836,12 +836,12 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n">
         <v>429</v>
@@ -852,12 +852,12 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>429</v>
@@ -868,12 +868,12 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" t="n">
         <v>429</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="29">
@@ -900,12 +900,12 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>429</v>
@@ -916,12 +916,12 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" t="n">
         <v>429</v>
@@ -932,12 +932,12 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>429</v>
@@ -948,12 +948,12 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n">
         <v>429</v>
@@ -964,12 +964,12 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B34" t="n">
         <v>429</v>
@@ -980,12 +980,12 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B35" t="n">
         <v>429</v>
@@ -996,12 +996,12 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" t="n">
         <v>429</v>
@@ -1012,12 +1012,12 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n">
         <v>429</v>
@@ -1028,12 +1028,12 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" t="n">
         <v>429</v>
@@ -1044,12 +1044,12 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>429</v>
@@ -1060,12 +1060,12 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B40" t="n">
         <v>429</v>
@@ -1076,12 +1076,12 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" t="n">
         <v>429</v>
@@ -1092,12 +1092,12 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" t="n">
         <v>429</v>
@@ -1108,12 +1108,12 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="n">
         <v>429</v>
@@ -1124,12 +1124,12 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" t="n">
         <v>429</v>
@@ -1140,12 +1140,12 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45" t="n">
         <v>429</v>
@@ -1156,12 +1156,12 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="n">
         <v>429</v>
@@ -1172,12 +1172,12 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" t="n">
         <v>429</v>
@@ -1188,12 +1188,12 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>429</v>
@@ -1204,12 +1204,12 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.79</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>429</v>
@@ -1220,12 +1220,12 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.79</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
         <v>429</v>
@@ -1236,12 +1236,12 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>429</v>
@@ -1252,12 +1252,12 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B52" t="n">
         <v>429</v>
@@ -1268,12 +1268,12 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" t="n">
         <v>429</v>
@@ -1284,12 +1284,12 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
         <v>429</v>
@@ -1300,12 +1300,12 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="n">
         <v>429</v>
@@ -1316,12 +1316,12 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B56" t="n">
         <v>429</v>
@@ -1332,12 +1332,12 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
         <v>429</v>
@@ -1348,12 +1348,12 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B58" t="n">
         <v>429</v>
@@ -1364,12 +1364,12 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="n">
         <v>429</v>
@@ -1380,12 +1380,12 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" t="n">
         <v>429</v>
@@ -1396,12 +1396,12 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B61" t="n">
         <v>429</v>
@@ -1412,12 +1412,12 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="n">
         <v>429</v>
@@ -1428,12 +1428,12 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B63" t="n">
         <v>429</v>
@@ -1444,12 +1444,12 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
         <v>429</v>
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="65">
@@ -1476,12 +1476,12 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B66" t="n">
         <v>429</v>
@@ -1492,12 +1492,12 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
         <v>429</v>
@@ -1508,12 +1508,12 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1.01</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B68" t="n">
         <v>429</v>
@@ -1524,12 +1524,12 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.02</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B69" t="n">
         <v>429</v>
@@ -1540,12 +1540,12 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1.02</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
         <v>429</v>
@@ -1556,12 +1556,12 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71" t="n">
         <v>429</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="72">
@@ -1588,12 +1588,12 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1.07</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B73" t="n">
         <v>429</v>
@@ -1604,12 +1604,12 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B74" t="n">
         <v>429</v>
@@ -1620,12 +1620,12 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B75" t="n">
         <v>429</v>
@@ -1636,12 +1636,12 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
         <v>429</v>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77">
@@ -1668,12 +1668,12 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1.09</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
         <v>429</v>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1.1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="79">
@@ -1700,12 +1700,12 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1.1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="n">
         <v>429</v>
@@ -1716,12 +1716,12 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1.1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" t="n">
         <v>429</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="82">
@@ -1748,12 +1748,12 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
         <v>429</v>
@@ -1764,12 +1764,12 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
         <v>429</v>
@@ -1780,12 +1780,12 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B85" t="n">
         <v>429</v>
@@ -1796,12 +1796,12 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B86" t="n">
         <v>429</v>
@@ -1812,12 +1812,12 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B87" t="n">
         <v>429</v>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="88">
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="89">
@@ -1860,12 +1860,12 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B90" t="n">
         <v>429</v>
@@ -1876,12 +1876,12 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" t="n">
         <v>429</v>
@@ -1892,12 +1892,12 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
         <v>429</v>
@@ -1908,12 +1908,12 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
         <v>429</v>
@@ -1924,12 +1924,12 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
         <v>429</v>
@@ -1940,12 +1940,12 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
         <v>429</v>
@@ -1956,12 +1956,12 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B96" t="n">
         <v>429</v>
@@ -1972,12 +1972,12 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B97" t="n">
         <v>429</v>
@@ -1988,12 +1988,12 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B98" t="n">
         <v>429</v>
@@ -2004,12 +2004,12 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
         <v>429</v>
@@ -2020,12 +2020,12 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B100" t="n">
         <v>429</v>
@@ -2036,12 +2036,12 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
         <v>429</v>
@@ -2052,12 +2052,12 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" t="n">
         <v>429</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="103">
@@ -2084,12 +2084,12 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" t="n">
         <v>429</v>
@@ -2100,12 +2100,12 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="n">
         <v>429</v>
@@ -2116,12 +2116,12 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="n">
         <v>429</v>
@@ -2132,12 +2132,12 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B107" t="n">
         <v>429</v>
@@ -2148,12 +2148,12 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" t="n">
         <v>429</v>
@@ -2164,12 +2164,12 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" t="n">
         <v>429</v>
@@ -2180,12 +2180,12 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B110" t="n">
         <v>429</v>
@@ -2196,12 +2196,12 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B111" t="n">
         <v>429</v>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="112">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="113">
@@ -2244,12 +2244,12 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="n">
         <v>429</v>
@@ -2260,12 +2260,12 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B115" t="n">
         <v>429</v>
@@ -2276,12 +2276,12 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" t="n">
         <v>429</v>
@@ -2292,12 +2292,12 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B117" t="n">
         <v>429</v>
@@ -2308,12 +2308,12 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B118" t="n">
         <v>429</v>
@@ -2324,12 +2324,12 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B119" t="n">
         <v>429</v>
@@ -2340,12 +2340,12 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B120" t="n">
         <v>429</v>
@@ -2356,12 +2356,12 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121" t="n">
         <v>429</v>
@@ -2372,12 +2372,12 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" t="n">
         <v>429</v>
@@ -2388,12 +2388,12 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B123" t="n">
         <v>429</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="124">
@@ -2420,12 +2420,12 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B125" t="n">
         <v>429</v>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="126">
@@ -2452,12 +2452,12 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B127" t="n">
         <v>429</v>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="128">
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="129">
@@ -2500,12 +2500,12 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130" t="n">
         <v>429</v>
@@ -2516,12 +2516,12 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B131" t="n">
         <v>429</v>
@@ -2532,12 +2532,12 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132" t="n">
         <v>429</v>
@@ -2548,12 +2548,12 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B133" t="n">
         <v>429</v>
@@ -2564,12 +2564,12 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134" t="n">
         <v>429</v>
@@ -2580,12 +2580,12 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B135" t="n">
         <v>429</v>
@@ -2596,12 +2596,12 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B136" t="n">
         <v>429</v>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="137">
@@ -2628,12 +2628,12 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" t="n">
         <v>429</v>
@@ -2644,12 +2644,12 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B139" t="n">
         <v>429</v>
@@ -2660,12 +2660,12 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" t="n">
         <v>429</v>
@@ -2676,12 +2676,12 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" t="n">
         <v>429</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="142">
@@ -2708,7 +2708,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="143">
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="144">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="145">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="146">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2.01</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="147">
@@ -2788,12 +2788,12 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" t="n">
         <v>429</v>
@@ -2804,12 +2804,12 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B149" t="n">
         <v>429</v>
@@ -2820,12 +2820,12 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" t="n">
         <v>429</v>
@@ -2836,12 +2836,12 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B151" t="n">
         <v>429</v>
@@ -2852,12 +2852,12 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" t="n">
         <v>429</v>
@@ -2868,12 +2868,12 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B153" t="n">
         <v>429</v>
@@ -2884,12 +2884,12 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B154" t="n">
         <v>429</v>
@@ -2900,12 +2900,12 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B155" t="n">
         <v>429</v>
@@ -2916,12 +2916,12 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B156" t="n">
         <v>429</v>
@@ -2932,12 +2932,12 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B157" t="n">
         <v>429</v>
@@ -2948,12 +2948,12 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B158" t="n">
         <v>429</v>
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="159">
@@ -2980,12 +2980,12 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" t="n">
         <v>429</v>
@@ -2996,12 +2996,12 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161" t="n">
         <v>429</v>
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="162">
@@ -3028,12 +3028,12 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" t="n">
         <v>429</v>
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="164">
@@ -3060,12 +3060,12 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2.29</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B165" t="n">
         <v>429</v>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2.29</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="166">
@@ -3092,12 +3092,12 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2.29</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167" t="n">
         <v>429</v>
@@ -3108,12 +3108,12 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168" t="n">
         <v>429</v>
@@ -3124,12 +3124,12 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B169" t="n">
         <v>429</v>
@@ -3140,12 +3140,12 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2.36</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B170" t="n">
         <v>429</v>
@@ -3156,12 +3156,12 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2.36</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B171" t="n">
         <v>429</v>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>2.37</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="172">
@@ -3188,12 +3188,12 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2.37</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B173" t="n">
         <v>429</v>
@@ -3204,12 +3204,12 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2.37</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" t="n">
         <v>429</v>
@@ -3220,12 +3220,12 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>2.41</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" t="n">
         <v>429</v>
@@ -3236,12 +3236,12 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2.41</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B176" t="n">
         <v>429</v>
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="177">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="178">
@@ -3284,12 +3284,12 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B179" t="n">
         <v>429</v>
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="180">
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="181">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="182">
@@ -3348,12 +3348,12 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B183" t="n">
         <v>429</v>
@@ -3364,12 +3364,12 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B184" t="n">
         <v>429</v>
@@ -3380,12 +3380,12 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2.57</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B185" t="n">
         <v>429</v>
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>2.57</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="186">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="187">
@@ -3428,7 +3428,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="188">
@@ -3444,12 +3444,12 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" t="n">
         <v>429</v>
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2.59</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="190">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2.59</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="191">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>2.62</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="192">
@@ -3508,12 +3508,12 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B193" t="n">
         <v>429</v>
@@ -3524,12 +3524,12 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B194" t="n">
         <v>429</v>
@@ -3540,12 +3540,12 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>2.63</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B195" t="n">
         <v>429</v>
@@ -3556,12 +3556,12 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" t="n">
         <v>429</v>
@@ -3572,12 +3572,12 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>2.65</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B197" t="n">
         <v>429</v>
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2.65</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="198">
@@ -3604,12 +3604,12 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" t="n">
         <v>429</v>
@@ -3620,12 +3620,12 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B200" t="n">
         <v>429</v>
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="201">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>2.72</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="202">
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="203">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="204">
@@ -3700,12 +3700,12 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" t="n">
         <v>429</v>
@@ -3716,12 +3716,12 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>2.81</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B206" t="n">
         <v>429</v>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2.81</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="207">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="208">
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="209">
@@ -3780,12 +3780,12 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>2.86</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" t="n">
         <v>429</v>
@@ -3796,12 +3796,12 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B211" t="n">
         <v>429</v>
@@ -3812,12 +3812,12 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" t="n">
         <v>429</v>
@@ -3828,12 +3828,12 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B213" t="n">
         <v>429</v>
@@ -3844,12 +3844,12 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>2.89</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B214" t="n">
         <v>429</v>
@@ -3860,12 +3860,12 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>2.89</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B215" t="n">
         <v>429</v>
@@ -3876,7 +3876,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2.89</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="216">
@@ -3892,12 +3892,12 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B217" t="n">
         <v>429</v>
@@ -3908,12 +3908,12 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B218" t="n">
         <v>429</v>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="219">
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="220">
@@ -3956,7 +3956,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>2.94</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="221">
@@ -3972,12 +3972,12 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" t="n">
         <v>429</v>
@@ -3988,12 +3988,12 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>3.04</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B223" t="n">
         <v>429</v>
@@ -4004,7 +4004,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>3.04</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="224">
@@ -4020,12 +4020,12 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225" t="n">
         <v>429</v>
@@ -4036,7 +4036,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="226">
@@ -4052,12 +4052,12 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B227" t="n">
         <v>429</v>
@@ -4068,12 +4068,12 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B228" t="n">
         <v>429</v>
@@ -4084,12 +4084,12 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>3.08</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" t="n">
         <v>429</v>
@@ -4100,12 +4100,12 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B230" t="n">
         <v>429</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -4132,12 +4132,12 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3.12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B232" t="n">
         <v>429</v>
@@ -4148,12 +4148,12 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B233" t="n">
         <v>429</v>
@@ -4164,12 +4164,12 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" t="n">
         <v>429</v>
@@ -4180,12 +4180,12 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B235" t="n">
         <v>429</v>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="236">
@@ -4212,12 +4212,12 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" t="n">
         <v>429</v>
@@ -4228,12 +4228,12 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>3.16</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B238" t="n">
         <v>429</v>
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>3.16</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="239">
@@ -4260,7 +4260,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3.17</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="240">
@@ -4276,12 +4276,12 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B241" t="n">
         <v>429</v>
@@ -4292,12 +4292,12 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B242" t="n">
         <v>429</v>
@@ -4308,12 +4308,12 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>3.32</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B243" t="n">
         <v>429</v>
@@ -4324,12 +4324,12 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3.32</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B244" t="n">
         <v>429</v>
@@ -4340,12 +4340,12 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B245" t="n">
         <v>429</v>
@@ -4356,12 +4356,12 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>3.33</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B246" t="n">
         <v>429</v>
@@ -4372,12 +4372,12 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>3.33</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B247" t="n">
         <v>429</v>
@@ -4388,12 +4388,12 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B248" t="n">
         <v>429</v>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>3.36</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="249">
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="250">
@@ -4436,12 +4436,12 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B251" t="n">
         <v>429</v>
@@ -4452,12 +4452,12 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>3.4</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B252" t="n">
         <v>429</v>
@@ -4468,12 +4468,12 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>3.4</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B253" t="n">
         <v>429</v>
@@ -4484,12 +4484,12 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>3.4</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B254" t="n">
         <v>429</v>
@@ -4500,12 +4500,12 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>3.41</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B255" t="n">
         <v>429</v>
@@ -4516,12 +4516,12 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>3.41</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B256" t="n">
         <v>429</v>
@@ -4532,12 +4532,12 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B257" t="n">
         <v>429</v>
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>3.44</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="258">
@@ -4564,12 +4564,12 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B259" t="n">
         <v>429</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>3.46</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="260">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="261">
@@ -4612,12 +4612,12 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" t="n">
         <v>429</v>
@@ -4628,12 +4628,12 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3.54</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" t="n">
         <v>429</v>
@@ -4644,12 +4644,12 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>3.54</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" t="n">
         <v>429</v>
@@ -4660,12 +4660,12 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>3.58</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B265" t="n">
         <v>429</v>
@@ -4676,12 +4676,12 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>3.58</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B266" t="n">
         <v>429</v>
@@ -4692,12 +4692,12 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>3.58</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B267" t="n">
         <v>429</v>
@@ -4708,12 +4708,12 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B268" t="n">
         <v>429</v>
@@ -4724,12 +4724,12 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>3.59</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B269" t="n">
         <v>429</v>
@@ -4740,12 +4740,12 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>3.59</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B270" t="n">
         <v>429</v>
@@ -4756,12 +4756,12 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>3.62</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B271" t="n">
         <v>429</v>
@@ -4772,12 +4772,12 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>3.62</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B272" t="n">
         <v>429</v>
@@ -4788,12 +4788,12 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>3.62</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B273" t="n">
         <v>429</v>
@@ -4804,12 +4804,12 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" t="n">
         <v>429</v>
@@ -4820,12 +4820,12 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3.63</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B275" t="n">
         <v>429</v>
@@ -4836,12 +4836,12 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3.63</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B276" t="n">
         <v>429</v>
@@ -4852,12 +4852,12 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>3.63</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B277" t="n">
         <v>429</v>
@@ -4868,12 +4868,12 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>3.67</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B278" t="n">
         <v>429</v>
@@ -4884,12 +4884,12 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>3.67</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B279" t="n">
         <v>429</v>
@@ -4900,12 +4900,12 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>3.72</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B280" t="n">
         <v>429</v>
@@ -4916,12 +4916,12 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>3.73</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B281" t="n">
         <v>429</v>
@@ -4932,12 +4932,12 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>3.74</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" t="n">
         <v>429</v>
@@ -4948,12 +4948,12 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>3.77</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B283" t="n">
         <v>429</v>
@@ -4964,12 +4964,12 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>3.77</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B284" t="n">
         <v>429</v>
@@ -4980,12 +4980,12 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3.8</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B285" t="n">
         <v>429</v>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>3.8</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="286">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>3.81</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="287">
@@ -5028,12 +5028,12 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>3.81</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" t="n">
         <v>429</v>
@@ -5044,12 +5044,12 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>3.82</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B289" t="n">
         <v>429</v>
@@ -5060,12 +5060,12 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>3.84</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B290" t="n">
         <v>429</v>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>3.85</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="291">
@@ -5092,12 +5092,12 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>3.85</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B292" t="n">
         <v>429</v>
@@ -5108,12 +5108,12 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>3.85</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B293" t="n">
         <v>429</v>
@@ -5124,7 +5124,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="294">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>3.86</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="295">
@@ -5156,12 +5156,12 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>3.88</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B296" t="n">
         <v>429</v>
@@ -5172,12 +5172,12 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>3.89</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B297" t="n">
         <v>429</v>
@@ -5188,12 +5188,12 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>3.9</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B298" t="n">
         <v>429</v>
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>3.91</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="299">
@@ -5220,12 +5220,12 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>3.95</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B300" t="n">
         <v>429</v>
@@ -5236,7 +5236,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>3.96</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="301">
@@ -5252,12 +5252,12 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>3.98</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B302" t="n">
         <v>429</v>
@@ -5268,12 +5268,12 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>4.01</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B303" t="n">
         <v>429</v>
@@ -5284,12 +5284,12 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>4.01</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B304" t="n">
         <v>429</v>
@@ -5300,12 +5300,12 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>4.03</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B305" t="n">
         <v>429</v>
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="306">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>4.04</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="307">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>4.05</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="308">
@@ -5364,12 +5364,12 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>4.05</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B309" t="n">
         <v>429</v>
@@ -5380,12 +5380,12 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B310" t="n">
         <v>429</v>
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>4.07</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="311">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>4.08</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="312">
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>4.09</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="313">
@@ -5444,12 +5444,12 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>4.09</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B314" t="n">
         <v>429</v>
@@ -5460,12 +5460,12 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>4.09</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" t="n">
         <v>429</v>
@@ -5476,12 +5476,12 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>4.09</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B316" t="n">
         <v>429</v>
@@ -5492,12 +5492,12 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B317" t="n">
         <v>429</v>
@@ -5508,12 +5508,12 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>4.13</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B318" t="n">
         <v>429</v>
@@ -5524,12 +5524,12 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>4.14</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B319" t="n">
         <v>429</v>
@@ -5540,7 +5540,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="320">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="321">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>4.26</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="322">
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>4.31</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="323">
@@ -5604,12 +5604,12 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>4.32</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" t="n">
         <v>429</v>
@@ -5620,12 +5620,12 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>4.34</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B325" t="n">
         <v>429</v>
@@ -5636,12 +5636,12 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>4.34</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B326" t="n">
         <v>429</v>
@@ -5652,12 +5652,12 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>4.36</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B327" t="n">
         <v>429</v>
@@ -5668,7 +5668,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>4.36</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="328">
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>4.36</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="329">
@@ -5700,7 +5700,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>4.37</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="330">
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>4.37</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="331">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>4.38</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="332">
@@ -5748,12 +5748,12 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B333" t="n">
         <v>429</v>
@@ -5764,12 +5764,12 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>4.41</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" t="n">
         <v>429</v>
@@ -5780,12 +5780,12 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>4.43</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B335" t="n">
         <v>429</v>
@@ -5796,12 +5796,12 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>4.43</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B336" t="n">
         <v>429</v>
@@ -5812,12 +5812,12 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B337" t="n">
         <v>429</v>
@@ -5828,12 +5828,12 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>4.44</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B338" t="n">
         <v>429</v>
@@ -5844,7 +5844,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>4.46</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="339">
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>4.48</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="340">
@@ -5876,7 +5876,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>4.48</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="341">
@@ -5892,12 +5892,12 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>4.52</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B342" t="n">
         <v>429</v>
@@ -5908,7 +5908,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>4.54</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="343">
@@ -5924,12 +5924,12 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>4.56</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B344" t="n">
         <v>429</v>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>4.56</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="345">
@@ -5956,12 +5956,12 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>4.56</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" t="n">
         <v>429</v>
@@ -5972,12 +5972,12 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>4.58</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B347" t="n">
         <v>429</v>
@@ -5988,12 +5988,12 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>4.58</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B348" t="n">
         <v>429</v>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>4.58</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="349">
@@ -6020,12 +6020,12 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B350" t="n">
         <v>429</v>
@@ -6036,12 +6036,12 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>4.61</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B351" t="n">
         <v>429</v>
@@ -6052,12 +6052,12 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>4.61</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B352" t="n">
         <v>429</v>
@@ -6068,12 +6068,12 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>4.63</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B353" t="n">
         <v>429</v>
@@ -6084,12 +6084,12 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>4.64</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B354" t="n">
         <v>429</v>
@@ -6100,12 +6100,12 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>4.64</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B355" t="n">
         <v>429</v>
@@ -6116,12 +6116,12 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B356" t="n">
         <v>429</v>
@@ -6132,12 +6132,12 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B357" t="n">
         <v>429</v>
@@ -6148,12 +6148,12 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>4.66</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B358" t="n">
         <v>429</v>
@@ -6164,12 +6164,12 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>4.7</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B359" t="n">
         <v>429</v>
@@ -6180,12 +6180,12 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>4.71</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B360" t="n">
         <v>429</v>
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>4.73</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="361">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>4.77</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="362">
@@ -6228,12 +6228,12 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>4.79</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B363" t="n">
         <v>429</v>
@@ -6244,12 +6244,12 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>4.8</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B364" t="n">
         <v>429</v>
@@ -6260,12 +6260,12 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>4.81</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B365" t="n">
         <v>429</v>
@@ -6276,7 +6276,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>4.82</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="366">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>4.83</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="367">
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>4.83</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="368">
@@ -6324,12 +6324,12 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>4.84</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B369" t="n">
         <v>429</v>
@@ -6340,12 +6340,12 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>4.84</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B370" t="n">
         <v>429</v>
@@ -6356,12 +6356,12 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>4.85</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B371" t="n">
         <v>429</v>
@@ -6372,12 +6372,12 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>4.86</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B372" t="n">
         <v>429</v>
@@ -6388,12 +6388,12 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>4.86</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B373" t="n">
         <v>429</v>
@@ -6404,12 +6404,12 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>4.89</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B374" t="n">
         <v>429</v>
@@ -6420,12 +6420,12 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>4.9</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B375" t="n">
         <v>429</v>
@@ -6436,12 +6436,12 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>4.9</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B376" t="n">
         <v>429</v>
@@ -6452,12 +6452,12 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>4.91</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B377" t="n">
         <v>429</v>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>4.91</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="378">
@@ -6484,12 +6484,12 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>4.97</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B379" t="n">
         <v>429</v>
@@ -6500,12 +6500,12 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>4.99</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B380" t="n">
         <v>429</v>
@@ -6516,12 +6516,12 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>5</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B381" t="n">
         <v>429</v>
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>5.03</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="382">
@@ -6548,12 +6548,12 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>5.03</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B383" t="n">
         <v>429</v>
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>5.03</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="384">
@@ -6580,12 +6580,12 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>5.03</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B385" t="n">
         <v>429</v>
@@ -6596,12 +6596,12 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>5.04</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B386" t="n">
         <v>429</v>
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>5.04</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="387">
@@ -6628,12 +6628,12 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>5.07</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B388" t="n">
         <v>429</v>
@@ -6644,12 +6644,12 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>5.12</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B389" t="n">
         <v>429</v>
@@ -6660,12 +6660,12 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>5.12</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B390" t="n">
         <v>429</v>
@@ -6676,12 +6676,12 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>5.12</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B391" t="n">
         <v>429</v>
@@ -6692,12 +6692,12 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>5.13</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B392" t="n">
         <v>429</v>
@@ -6708,12 +6708,12 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B393" t="n">
         <v>429</v>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="394">
@@ -6740,12 +6740,12 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>5.15</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B395" t="n">
         <v>429</v>
@@ -6756,12 +6756,12 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>5.15</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B396" t="n">
         <v>429</v>
@@ -6772,12 +6772,12 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>5.16</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B397" t="n">
         <v>429</v>
@@ -6788,12 +6788,12 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>5.18</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B398" t="n">
         <v>429</v>
@@ -6804,12 +6804,12 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>5.22</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B399" t="n">
         <v>429</v>
@@ -6820,7 +6820,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>5.24</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="400">
@@ -6836,12 +6836,12 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>5.28</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" t="n">
         <v>429</v>
@@ -6852,12 +6852,12 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>5.28</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B402" t="n">
         <v>429</v>
@@ -6868,12 +6868,12 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>5.31</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" t="n">
         <v>429</v>
@@ -6884,12 +6884,12 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>5.32</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B404" t="n">
         <v>429</v>
@@ -6900,7 +6900,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>5.32</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="405">
@@ -6916,12 +6916,12 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>5.32</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B406" t="n">
         <v>429</v>
@@ -6932,12 +6932,12 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>5.33</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B407" t="n">
         <v>429</v>
@@ -6948,12 +6948,12 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>5.34</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B408" t="n">
         <v>429</v>
@@ -6964,12 +6964,12 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>5.37</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B409" t="n">
         <v>429</v>
@@ -6980,12 +6980,12 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>5.37</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" t="n">
         <v>429</v>
@@ -6996,12 +6996,12 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>5.37</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B411" t="n">
         <v>429</v>
@@ -7012,12 +7012,12 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>5.37</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B412" t="n">
         <v>429</v>
@@ -7028,12 +7028,12 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>5.39</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B413" t="n">
         <v>429</v>
@@ -7044,12 +7044,12 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>5.39</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B414" t="n">
         <v>429</v>
@@ -7060,12 +7060,12 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>5.39</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B415" t="n">
         <v>429</v>
@@ -7076,7 +7076,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>5.41</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="416">
@@ -7092,12 +7092,12 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>5.46</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B417" t="n">
         <v>429</v>
@@ -7108,12 +7108,12 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>5.47</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B418" t="n">
         <v>429</v>
@@ -7124,12 +7124,12 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>5.48</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B419" t="n">
         <v>429</v>
@@ -7140,12 +7140,12 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>5.48</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B420" t="n">
         <v>429</v>
@@ -7156,12 +7156,12 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>5.5</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B421" t="n">
         <v>429</v>
@@ -7172,12 +7172,12 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>5.52</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B422" t="n">
         <v>429</v>
@@ -7188,12 +7188,12 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>5.53</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" t="n">
         <v>429</v>
@@ -7204,12 +7204,12 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>5.55</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B424" t="n">
         <v>429</v>
@@ -7220,12 +7220,12 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>5.55</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B425" t="n">
         <v>429</v>
@@ -7236,12 +7236,12 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>5.55</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B426" t="n">
         <v>429</v>
@@ -7252,12 +7252,12 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>5.56</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B427" t="n">
         <v>429</v>
@@ -7268,12 +7268,12 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>5.57</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B428" t="n">
         <v>429</v>
@@ -7284,12 +7284,12 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>5.58</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B429" t="n">
         <v>429</v>
@@ -7300,12 +7300,12 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>5.59</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B430" t="n">
         <v>429</v>
@@ -7316,12 +7316,12 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>5.61</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B431" t="n">
         <v>429</v>
@@ -7332,12 +7332,12 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>5.61</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B432" t="n">
         <v>429</v>
@@ -7348,12 +7348,12 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>5.61</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" t="n">
         <v>429</v>
@@ -7364,12 +7364,12 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>5.62</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B434" t="n">
         <v>429</v>
@@ -7380,7 +7380,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>5.63</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="435">
@@ -7396,12 +7396,12 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>5.64</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" t="n">
         <v>429</v>
@@ -7412,12 +7412,12 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>5.7</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B437" t="n">
         <v>429</v>
@@ -7428,15 +7428,15 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>5.71</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -7444,15 +7444,15 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>5.71</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B439" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>5.71</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="440">
@@ -7468,7 +7468,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>5.74</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="441">
@@ -7484,7 +7484,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -7492,15 +7492,15 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>5.77</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -7508,15 +7508,15 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>5.77</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B443" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>5.77</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="444">
@@ -7532,7 +7532,7 @@
         <v>444</v>
       </c>
       <c r="B444" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -7540,15 +7540,15 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>5.78</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B445" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -7556,15 +7556,15 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>5.79</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B446" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -7572,15 +7572,15 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>5.8</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B447" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>5.81</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>5.81</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B449" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -7620,15 +7620,15 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>5.84</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B450" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>5.85</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="451">
@@ -7644,7 +7644,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -7652,15 +7652,15 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>5.86</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B452" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -7668,15 +7668,15 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>5.86</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B453" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -7684,15 +7684,15 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>5.87</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B454" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -7700,15 +7700,15 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>5.87</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B455" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -7716,15 +7716,15 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>5.89</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B456" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -7732,15 +7732,15 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>5.93</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B457" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -7748,15 +7748,15 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>5.93</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -7764,15 +7764,15 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>5.93</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -7780,15 +7780,15 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>5.98</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B460" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -7796,15 +7796,15 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>5.99</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B461" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -7812,15 +7812,15 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>6.02</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B462" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -7828,15 +7828,15 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>6.02</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -7844,15 +7844,15 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>6.02</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B464" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -7860,15 +7860,15 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>6.02</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -7876,15 +7876,15 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>6.04</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B466" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -7892,15 +7892,15 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>6.04</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B467" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -7908,15 +7908,15 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>6.04</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -7924,15 +7924,15 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B469" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -7945,10 +7945,10 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B470" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B471" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>6.09</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -7988,15 +7988,15 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>6.2</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -8004,15 +8004,15 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>6.2</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B474" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -8020,15 +8020,15 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>6.2</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B475" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
@@ -8036,15 +8036,15 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>6.2</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B476" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
@@ -8052,15 +8052,15 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>6.27</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B477" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -8068,15 +8068,15 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>6.28</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B478" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -8084,15 +8084,15 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>6.28</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B479" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -8100,15 +8100,15 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>6.29</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
@@ -8116,15 +8116,15 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>6.32</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B481" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -8132,15 +8132,15 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>6.32</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B482" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -8148,15 +8148,15 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>6.36</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>6.37</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="484">
@@ -8172,7 +8172,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
@@ -8180,15 +8180,15 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>6.37</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B485" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -8196,15 +8196,15 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>6.37</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B486" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
@@ -8212,15 +8212,15 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>6.39</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B487" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
@@ -8228,15 +8228,15 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>6.39</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B488" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
@@ -8244,15 +8244,15 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>6.4</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B489" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
@@ -8260,15 +8260,15 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>6.4</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
@@ -8276,15 +8276,15 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>6.41</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
@@ -8292,15 +8292,15 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>6.41</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B492" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
@@ -8308,15 +8308,15 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>6.42</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B493" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>6.47</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B494" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>6.47</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B495" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
@@ -8356,15 +8356,15 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>6.47</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B496" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
@@ -8372,15 +8372,15 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>6.5</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B497" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>6.5</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="498">
@@ -8396,7 +8396,7 @@
         <v>495</v>
       </c>
       <c r="B498" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
@@ -8404,15 +8404,15 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>6.51</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
@@ -8420,15 +8420,15 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>6.52</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>6.52</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="501">
@@ -8444,7 +8444,7 @@
         <v>498</v>
       </c>
       <c r="B501" t="n">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>6.53</v>
+        <v>6.44</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_peticiones.xlsx
+++ b/resultados_peticiones.xlsx
@@ -457,10 +457,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -468,15 +468,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -484,15 +484,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -500,15 +500,15 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -516,15 +516,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -532,15 +532,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -548,15 +548,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,15 +564,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -580,15 +580,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -628,15 +628,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -644,15 +644,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -660,15 +660,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -676,15 +676,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -692,15 +692,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -708,15 +708,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -724,15 +724,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -740,15 +740,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -756,15 +756,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B21" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -772,15 +772,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -788,15 +788,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.39</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -804,15 +804,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.4</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -820,15 +820,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.41</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -836,15 +836,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.41</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -852,15 +852,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -868,15 +868,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B28" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -884,15 +884,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B29" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -900,15 +900,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -916,15 +916,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -932,15 +932,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -948,15 +948,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B34" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -996,15 +996,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1012,15 +1012,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1028,15 +1028,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1044,15 +1044,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1060,15 +1060,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1076,15 +1076,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1092,15 +1092,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.54</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1108,15 +1108,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.66</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="44">
@@ -1132,7 +1132,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1140,15 +1140,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B45" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1156,15 +1156,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1172,15 +1172,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1188,15 +1188,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1204,15 +1204,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.68</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1220,15 +1220,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1236,15 +1236,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.7</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B51" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1252,15 +1252,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.7</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B52" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1268,15 +1268,15 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.71</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1284,15 +1284,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1300,15 +1300,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.72</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B55" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1316,15 +1316,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.72</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.72</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.74</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1364,15 +1364,15 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1380,15 +1380,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1396,15 +1396,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B61" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1412,15 +1412,15 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1428,15 +1428,15 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.86</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1444,15 +1444,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.88</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1460,15 +1460,15 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.88</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1476,15 +1476,15 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.89</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1492,15 +1492,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.9</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1508,15 +1508,15 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.91</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1524,15 +1524,15 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.91</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B69" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1540,15 +1540,15 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.91</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B70" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1556,15 +1556,15 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="72">
@@ -1580,7 +1580,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="73">
@@ -1596,7 +1596,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1604,15 +1604,15 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.95</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.95</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="75">
@@ -1628,7 +1628,7 @@
         <v>71</v>
       </c>
       <c r="B75" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1636,15 +1636,15 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.95</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1652,15 +1652,15 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.95</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1668,15 +1668,15 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.96</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1684,15 +1684,15 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.96</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B79" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.96</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.97</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="82">
@@ -1740,7 +1740,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1748,15 +1748,15 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1764,15 +1764,15 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1780,15 +1780,15 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1796,15 +1796,15 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="87">
@@ -1820,7 +1820,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1828,15 +1828,15 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1844,15 +1844,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B89" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1860,15 +1860,15 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1876,15 +1876,15 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1892,15 +1892,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B92" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="93">
@@ -1916,7 +1916,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1924,15 +1924,15 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="95">
@@ -1948,7 +1948,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1956,15 +1956,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1972,15 +1972,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B97" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1988,15 +1988,15 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2004,15 +2004,15 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B99" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2020,15 +2020,15 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2036,15 +2036,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B101" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2052,15 +2052,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1.42</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1.42</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2100,15 +2100,15 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1.44</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1.46</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="106">
@@ -2124,7 +2124,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2132,15 +2132,15 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1.46</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B107" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2148,15 +2148,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1.46</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B108" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2164,15 +2164,15 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1.49</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2180,15 +2180,15 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1.49</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2196,15 +2196,15 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2212,15 +2212,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2228,15 +2228,15 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="114">
@@ -2252,7 +2252,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2260,15 +2260,15 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="116">
@@ -2284,7 +2284,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2292,15 +2292,15 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1.53</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B117" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2308,15 +2308,15 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2324,15 +2324,15 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1.56</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1.56</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="120">
@@ -2348,7 +2348,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1.58</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="121">
@@ -2364,7 +2364,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2372,15 +2372,15 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1.58</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2388,15 +2388,15 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2404,15 +2404,15 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1.66</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2420,15 +2420,15 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1.67</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B125" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1.71</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1.71</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B127" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2468,15 +2468,15 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1.71</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B128" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2484,15 +2484,15 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1.71</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2500,15 +2500,15 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1.71</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2516,15 +2516,15 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1.75</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2532,15 +2532,15 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1.75</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B132" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2548,15 +2548,15 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B133" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2564,15 +2564,15 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2580,15 +2580,15 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2596,15 +2596,15 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2612,15 +2612,15 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B137" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2628,15 +2628,15 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B138" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2644,15 +2644,15 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1.78</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2660,15 +2660,15 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1.79</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2676,15 +2676,15 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1.83</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2692,15 +2692,15 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1.83</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B142" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2708,15 +2708,15 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1.9</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2724,15 +2724,15 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2740,15 +2740,15 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1.9</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B145" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2756,15 +2756,15 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1.9</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -2772,15 +2772,15 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1.94</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B147" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2788,15 +2788,15 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1.96</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B148" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1.96</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B149" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1.96</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B150" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2836,15 +2836,15 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1.97</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B151" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2852,15 +2852,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1.98</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B152" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2868,15 +2868,15 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1.98</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B153" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2884,15 +2884,15 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1.98</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B154" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1.98</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="155">
@@ -2908,7 +2908,7 @@
         <v>152</v>
       </c>
       <c r="B155" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2916,15 +2916,15 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1.99</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B156" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2932,15 +2932,15 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1.99</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2948,15 +2948,15 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2.04</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B158" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -2964,15 +2964,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B159" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="160">
@@ -2988,7 +2988,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2.1</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="161">
@@ -3004,7 +3004,7 @@
         <v>158</v>
       </c>
       <c r="B161" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3012,15 +3012,15 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2.11</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B162" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2.17</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="163">
@@ -3036,7 +3036,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3044,15 +3044,15 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3060,15 +3060,15 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2.18</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2.18</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="166">
@@ -3084,7 +3084,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2.19</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="167">
@@ -3100,7 +3100,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3108,15 +3108,15 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2.22</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B168" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3124,15 +3124,15 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2.22</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B169" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3140,15 +3140,15 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2.23</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B170" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3156,15 +3156,15 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2.23</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B171" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>2.23</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B172" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3204,15 +3204,15 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2.26</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B174" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3220,15 +3220,15 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>2.27</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B175" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3236,15 +3236,15 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2.27</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B176" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3252,15 +3252,15 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>2.27</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B177" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3268,15 +3268,15 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>2.27</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B178" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3284,15 +3284,15 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2.29</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3300,15 +3300,15 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2.3</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B180" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3316,15 +3316,15 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2.3</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B181" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2.36</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="182">
@@ -3340,7 +3340,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2.4</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="183">
@@ -3356,7 +3356,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3364,15 +3364,15 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2.41</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B184" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3380,15 +3380,15 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2.41</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B185" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3396,15 +3396,15 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>2.41</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B186" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3412,15 +3412,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2.42</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B187" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3428,15 +3428,15 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2.42</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -3444,15 +3444,15 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2.44</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B189" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -3460,15 +3460,15 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2.47</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -3476,15 +3476,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2.49</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B191" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -3492,15 +3492,15 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>2.49</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -3508,15 +3508,15 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2.5</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B193" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -3524,15 +3524,15 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2.5</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B194" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>2.52</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B195" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -3572,15 +3572,15 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>2.54</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -3588,15 +3588,15 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2.54</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B198" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -3604,15 +3604,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2.54</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B199" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -3620,15 +3620,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2.56</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B200" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -3636,15 +3636,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2.57</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B201" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -3652,15 +3652,15 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>2.61</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B202" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="203">
@@ -3676,7 +3676,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>2.65</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="204">
@@ -3692,7 +3692,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -3700,15 +3700,15 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>2.67</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -3716,15 +3716,15 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>2.68</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B206" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -3732,15 +3732,15 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2.68</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -3748,15 +3748,15 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>2.68</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B208" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -3764,15 +3764,15 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>2.7</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B209" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -3780,15 +3780,15 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>2.71</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -3796,15 +3796,15 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>2.71</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B211" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>2.72</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="212">
@@ -3820,7 +3820,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -3828,15 +3828,15 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>2.72</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B213" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -3844,15 +3844,15 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>2.72</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B214" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -3860,15 +3860,15 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>2.74</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B215" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -3876,15 +3876,15 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2.74</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B216" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -3892,15 +3892,15 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2.75</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B217" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B218" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>2.76</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="219">
@@ -3932,7 +3932,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -3940,15 +3940,15 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>2.79</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -3956,15 +3956,15 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>2.81</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B221" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -3972,15 +3972,15 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2.84</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -3988,15 +3988,15 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>2.85</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -4004,15 +4004,15 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>2.85</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B224" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -4020,15 +4020,15 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>2.87</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -4036,15 +4036,15 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>2.88</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -4052,15 +4052,15 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>2.9</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -4068,15 +4068,15 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>2.9</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -4084,15 +4084,15 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>3</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B229" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B230" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>3</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B231" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -4132,15 +4132,15 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B232" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -4148,15 +4148,15 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>3</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B233" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -4164,15 +4164,15 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>3.01</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B234" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -4180,15 +4180,15 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>3.01</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B235" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -4196,15 +4196,15 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>3.01</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B236" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -4212,15 +4212,15 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3.04</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B237" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -4228,15 +4228,15 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>3.04</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B238" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4244,15 +4244,15 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>3.05</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B239" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4260,15 +4260,15 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3.06</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B240" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>3.1</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>3.14</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B242" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4308,15 +4308,15 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>3.14</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4324,15 +4324,15 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3.18</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B244" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -4340,15 +4340,15 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>3.21</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -4356,15 +4356,15 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>3.22</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -4372,15 +4372,15 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>3.22</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -4388,15 +4388,15 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>3.24</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -4404,15 +4404,15 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>3.24</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -4420,15 +4420,15 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>3.24</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B250" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -4436,15 +4436,15 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>3.24</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B251" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -4452,15 +4452,15 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>3.26</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -4468,15 +4468,15 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>3.26</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B253" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4484,15 +4484,15 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>3.29</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B254" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -4500,15 +4500,15 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>3.3</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B255" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -4516,15 +4516,15 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>3.3</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B256" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -4532,15 +4532,15 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>3.31</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -4548,15 +4548,15 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>3.31</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B258" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -4564,15 +4564,15 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>3.33</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -4580,15 +4580,15 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>3.33</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B260" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>3.35</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="261">
@@ -4604,7 +4604,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>3.35</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="262">
@@ -4620,7 +4620,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -4628,15 +4628,15 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3.38</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>3.39</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B264" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>3.43</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -4676,15 +4676,15 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>3.44</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -4692,15 +4692,15 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>3.44</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -4708,15 +4708,15 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>3.45</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B268" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -4724,15 +4724,15 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>3.45</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -4740,15 +4740,15 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>3.48</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>3.48</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="271">
@@ -4764,7 +4764,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>3.48</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="272">
@@ -4780,7 +4780,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -4788,15 +4788,15 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>3.49</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -4804,15 +4804,15 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>3.5</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -4820,15 +4820,15 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3.51</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -4836,15 +4836,15 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3.52</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B276" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -4852,15 +4852,15 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>3.53</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B277" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>3.55</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="278">
@@ -4876,7 +4876,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -4884,15 +4884,15 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>3.55</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B279" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>3.58</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="280">
@@ -4908,7 +4908,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>3.58</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="281">
@@ -4924,7 +4924,7 @@
         <v>278</v>
       </c>
       <c r="B281" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -4932,15 +4932,15 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>3.59</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B282" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -4948,15 +4948,15 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>3.62</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>3.62</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="284">
@@ -4972,7 +4972,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -4980,15 +4980,15 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3.66</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B285" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>3.66</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="286">
@@ -5004,7 +5004,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>3.67</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>3.67</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B288" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>3.67</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="289">
@@ -5052,7 +5052,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>3.71</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="290">
@@ -5068,7 +5068,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>3.72</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="291">
@@ -5084,7 +5084,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -5092,15 +5092,15 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>3.72</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B292" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -5108,15 +5108,15 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>3.73</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B293" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>3.75</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="294">
@@ -5132,7 +5132,7 @@
         <v>291</v>
       </c>
       <c r="B294" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>3.76</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="295">
@@ -5148,7 +5148,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -5156,15 +5156,15 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>3.77</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B296" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -5172,15 +5172,15 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>3.78</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B297" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -5188,15 +5188,15 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>3.78</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>3.78</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="299">
@@ -5212,7 +5212,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -5220,15 +5220,15 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>3.78</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -5236,15 +5236,15 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>3.79</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -5252,15 +5252,15 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>3.82</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B302" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -5268,15 +5268,15 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>3.85</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B303" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -5284,15 +5284,15 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>3.85</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B304" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>3.89</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="305">
@@ -5308,7 +5308,7 @@
         <v>302</v>
       </c>
       <c r="B305" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>3.89</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="306">
@@ -5324,7 +5324,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -5332,15 +5332,15 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>3.9</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -5348,15 +5348,15 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>3.91</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B308" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -5364,15 +5364,15 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>3.91</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B309" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>3.99</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B310" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>3.99</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B311" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -5412,15 +5412,15 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>3.99</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B312" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -5428,15 +5428,15 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3.99</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B313" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -5444,15 +5444,15 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>4</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B314" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -5460,15 +5460,15 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>4</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B315" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -5476,15 +5476,15 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>4</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B316" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -5492,15 +5492,15 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>4.08</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B317" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -5508,15 +5508,15 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>4.09</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B318" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -5524,15 +5524,15 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>4.09</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B319" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -5540,15 +5540,15 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>4.1</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B320" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -5556,15 +5556,15 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>4.1</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B321" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>4.13</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="322">
@@ -5580,7 +5580,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -5588,15 +5588,15 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>4.13</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B323" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -5604,15 +5604,15 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>4.14</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -5620,15 +5620,15 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>4.2</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B325" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -5636,15 +5636,15 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>4.21</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B326" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -5652,15 +5652,15 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>4.23</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -5668,15 +5668,15 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>4.23</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -5684,15 +5684,15 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>4.23</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -5700,15 +5700,15 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>4.25</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B330" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>4.25</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="331">
@@ -5724,7 +5724,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -5732,15 +5732,15 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>4.25</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B332" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>4.29</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B333" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>4.29</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B334" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -5780,15 +5780,15 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -5796,15 +5796,15 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -5812,15 +5812,15 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>4.32</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -5828,15 +5828,15 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>4.32</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B338" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -5844,15 +5844,15 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>4.33</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B339" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>4.33</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="340">
@@ -5868,7 +5868,7 @@
         <v>337</v>
       </c>
       <c r="B340" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -5876,15 +5876,15 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>4.33</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B341" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -5892,15 +5892,15 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>4.37</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B342" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>4.38</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="343">
@@ -5916,7 +5916,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>4.41</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="344">
@@ -5932,7 +5932,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>4.44</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="345">
@@ -5948,7 +5948,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>4.44</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="346">
@@ -5964,7 +5964,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>4.45</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="347">
@@ -5980,7 +5980,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>4.48</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="348">
@@ -5996,7 +5996,7 @@
         <v>345</v>
       </c>
       <c r="B348" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>4.48</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="349">
@@ -6012,7 +6012,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -6020,15 +6020,15 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>4.49</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B350" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -6036,15 +6036,15 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>4.51</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B351" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -6052,15 +6052,15 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>4.51</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -6068,15 +6068,15 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>4.52</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B353" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -6084,15 +6084,15 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>4.52</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -6100,15 +6100,15 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>4.53</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>4.55</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B356" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>4.55</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B357" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -6148,15 +6148,15 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>4.58</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B358" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -6164,15 +6164,15 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>4.58</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B359" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -6180,15 +6180,15 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>4.58</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B360" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -6196,15 +6196,15 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>4.58</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B361" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -6212,15 +6212,15 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>4.61</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B362" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -6228,15 +6228,15 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>4.62</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B363" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -6244,15 +6244,15 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>4.66</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -6260,15 +6260,15 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>4.66</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -6276,15 +6276,15 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>4.69</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B366" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -6292,15 +6292,15 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -6308,15 +6308,15 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>4.72</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B368" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -6324,15 +6324,15 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>4.72</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -6340,15 +6340,15 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>4.73</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B370" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -6356,15 +6356,15 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>4.73</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B371" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>4.74</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="372">
@@ -6380,7 +6380,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -6388,15 +6388,15 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>4.76</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B373" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>4.77</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="374">
@@ -6412,7 +6412,7 @@
         <v>371</v>
       </c>
       <c r="B374" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>4.77</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="375">
@@ -6428,7 +6428,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -6436,15 +6436,15 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>4.77</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -6452,15 +6452,15 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>4.78</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B377" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>4.78</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="378">
@@ -6476,7 +6476,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B380" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -6516,15 +6516,15 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>4.83</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -6532,15 +6532,15 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>4.83</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -6548,15 +6548,15 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>4.96</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B383" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -6564,15 +6564,15 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>4.96</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B384" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -6580,15 +6580,15 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>4.96</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -6596,15 +6596,15 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>4.99</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B386" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>4.99</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="387">
@@ -6620,7 +6620,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>5.01</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="388">
@@ -6636,7 +6636,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>5.04</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="389">
@@ -6652,7 +6652,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -6660,15 +6660,15 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>5.05</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>5.06</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="391">
@@ -6684,7 +6684,7 @@
         <v>387</v>
       </c>
       <c r="B391" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -6692,15 +6692,15 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>5.06</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -6708,15 +6708,15 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>5.07</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B393" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>5.07</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="394">
@@ -6732,7 +6732,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -6740,15 +6740,15 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>5.09</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -6756,15 +6756,15 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>5.11</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -6772,15 +6772,15 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>5.11</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B397" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -6788,15 +6788,15 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>5.11</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B398" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -6804,15 +6804,15 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>5.11</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -6820,15 +6820,15 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>5.13</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B400" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -6836,15 +6836,15 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>5.13</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B401" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>5.16</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B402" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>5.17</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B403" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>5.19</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="404">
@@ -6892,7 +6892,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>5.2</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="405">
@@ -6908,7 +6908,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>5.22</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="406">
@@ -6924,7 +6924,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>5.24</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="407">
@@ -6940,7 +6940,7 @@
         <v>403</v>
       </c>
       <c r="B407" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>5.24</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="408">
@@ -6956,7 +6956,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>5.26</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="409">
@@ -6972,7 +6972,7 @@
         <v>406</v>
       </c>
       <c r="B409" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -6980,15 +6980,15 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>5.26</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B410" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>5.28</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="411">
@@ -7004,7 +7004,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -7012,15 +7012,15 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>5.28</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B412" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -7028,15 +7028,15 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>5.28</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B413" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -7044,15 +7044,15 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>5.29</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B414" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -7060,15 +7060,15 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>5.3</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -7076,15 +7076,15 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>5.3</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B416" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -7092,15 +7092,15 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>5.31</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B417" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -7108,15 +7108,15 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>5.31</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B418" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -7124,15 +7124,15 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>5.33</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -7140,15 +7140,15 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>5.34</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -7156,15 +7156,15 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>5.36</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B421" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -7172,15 +7172,15 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>5.38</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B422" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -7188,15 +7188,15 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>5.4</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -7204,15 +7204,15 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>5.4</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B424" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>5.4</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B425" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>5.46</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B426" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -7252,15 +7252,15 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>5.46</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B427" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -7268,15 +7268,15 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>5.46</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B428" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -7284,15 +7284,15 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>5.47</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -7300,15 +7300,15 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>5.51</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B430" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -7316,15 +7316,15 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>5.52</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B431" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -7332,15 +7332,15 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>5.52</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -7348,15 +7348,15 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>5.52</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B433" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -7364,15 +7364,15 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>5.52</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B434" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -7380,15 +7380,15 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>5.54</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B435" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -7396,15 +7396,15 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>5.55</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B436" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>5.56</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="437">
@@ -7420,7 +7420,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -7428,15 +7428,15 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>5.56</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -7444,15 +7444,15 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>5.61</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B439" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -7460,15 +7460,15 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>5.61</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B440" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -7476,15 +7476,15 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>5.61</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B441" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -7492,15 +7492,15 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>5.65</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -7508,15 +7508,15 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>5.66</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B443" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -7524,15 +7524,15 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>5.7</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -7540,15 +7540,15 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>5.73</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -7556,15 +7556,15 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>5.73</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B446" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -7572,15 +7572,15 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>5.73</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>5.73</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>5.74</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -7620,15 +7620,15 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>5.77</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -7636,15 +7636,15 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>5.77</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B451" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -7652,15 +7652,15 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>5.79</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B452" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -7668,15 +7668,15 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>5.79</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B453" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -7684,15 +7684,15 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>5.79</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B454" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>5.8</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="455">
@@ -7708,7 +7708,7 @@
         <v>451</v>
       </c>
       <c r="B455" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -7716,15 +7716,15 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>5.8</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B456" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -7732,15 +7732,15 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>5.82</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B457" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -7748,15 +7748,15 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>5.83</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -7764,15 +7764,15 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>5.85</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -7780,15 +7780,15 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>5.85</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -7796,15 +7796,15 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>5.87</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B461" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -7812,15 +7812,15 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>5.88</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -7828,15 +7828,15 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>5.9</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -7844,15 +7844,15 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>5.96</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>6.01</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="465">
@@ -7868,7 +7868,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -7876,15 +7876,15 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>6.01</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B466" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -7892,15 +7892,15 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>6.01</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -7908,15 +7908,15 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>6.01</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -7924,15 +7924,15 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>6.05</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -7940,15 +7940,15 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>6.07</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B470" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>6.07</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B471" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>6.08</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -7988,15 +7988,15 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>6.09</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B473" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -8004,15 +8004,15 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>6.12</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B474" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>6.12</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="475">
@@ -8028,7 +8028,7 @@
         <v>475</v>
       </c>
       <c r="B475" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
@@ -8036,15 +8036,15 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>6.13</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
@@ -8052,15 +8052,15 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>6.13</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B477" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -8068,15 +8068,15 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>6.13</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -8084,15 +8084,15 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>6.16</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B479" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -8100,15 +8100,15 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>6.16</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B480" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
@@ -8116,15 +8116,15 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>6.16</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B481" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -8132,15 +8132,15 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>6.16</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B482" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -8148,15 +8148,15 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>6.18</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B483" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
@@ -8164,15 +8164,15 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>6.22</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B484" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
@@ -8180,15 +8180,15 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>6.24</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -8196,15 +8196,15 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>6.27</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B486" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
@@ -8212,15 +8212,15 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>6.28</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B487" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
@@ -8228,15 +8228,15 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>6.28</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B488" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
@@ -8244,15 +8244,15 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>6.28</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B489" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
@@ -8260,15 +8260,15 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>6.32</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B490" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
@@ -8276,15 +8276,15 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>6.32</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B491" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
@@ -8292,15 +8292,15 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>6.33</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
@@ -8308,15 +8308,15 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>6.35</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B493" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>6.36</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B494" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>6.38</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B495" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
@@ -8356,15 +8356,15 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>6.38</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B496" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
@@ -8372,15 +8372,15 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>6.39</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
@@ -8388,15 +8388,15 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>6.39</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
@@ -8404,15 +8404,15 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>6.39</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B499" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
@@ -8420,15 +8420,15 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>6.43</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
@@ -8436,15 +8436,15 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>6.44</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>6.44</v>
+        <v>7.59</v>
       </c>
     </row>
   </sheetData>
